--- a/Ecxel/Таблица.xlsx
+++ b/Ecxel/Таблица.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5856DB-68F8-4AFB-A6ED-B0EF34C139E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3D0B1-7A09-4EC6-84A2-B6C82841827A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3683,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Ecxel/Таблица.xlsx
+++ b/Ecxel/Таблица.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A3D0B1-7A09-4EC6-84A2-B6C82841827A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2E1EC-0F34-4877-B38B-031E5F8062E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="лист" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3683,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17219,7 +17225,7 @@
     <protectedRange password="C495" sqref="C278" name="Диапазон1_2_1" securityDescriptor="O:WDG:WDD:(D;;CC;;;WD)"/>
   </protectedRanges>
   <autoFilter ref="A1:L150" xr:uid="{612D8132-6242-4CCF-BA6D-553B63A99DD8}"/>
-  <sortState ref="B2:K150">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K150">
     <sortCondition descending="1" ref="H2:H150"/>
   </sortState>
   <conditionalFormatting sqref="G44">

--- a/Ecxel/Таблица.xlsx
+++ b/Ecxel/Таблица.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE34324-082D-4654-B705-CB2BAF307CA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEBEDC1-BA5C-45B7-82F7-988A17B5D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15444" yWindow="2988" windowWidth="15096" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="лист" sheetId="1" r:id="rId1"/>
@@ -2365,9 +2365,6 @@
     <t>МБОУ "Школа №1"</t>
   </si>
   <si>
-    <t> Григоренко Елена Петровна</t>
-  </si>
-  <si>
     <t>Тебекина Наталья Николаевна</t>
   </si>
   <si>
@@ -2588,6 +2585,9 @@
   </si>
   <si>
     <t>ОО, в которой обучается</t>
+  </si>
+  <si>
+    <t>Григоренко Елена Петровна</t>
   </si>
 </sst>
 </file>
@@ -3359,27 +3359,27 @@
   <dimension ref="A1:L400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J405" sqref="J405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="9"/>
-    <col min="9" max="9" width="15.08984375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="18"/>
-    <col min="13" max="16384" width="9.08984375" style="9"/>
+    <col min="1" max="1" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="9"/>
+    <col min="9" max="9" width="15.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="18"/>
+    <col min="13" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>5</v>
@@ -3414,15 +3414,15 @@
         <v>9</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>264</v>
@@ -3446,10 +3446,10 @@
         <v>269</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3478,10 +3478,10 @@
         <v>442</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3514,15 +3514,15 @@
         <v>612</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>105</v>
@@ -3550,10 +3550,10 @@
         <v>108</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3586,10 +3586,10 @@
         <v>612</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3618,15 +3618,15 @@
         <v>454</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>109</v>
@@ -3654,15 +3654,15 @@
         <v>108</v>
       </c>
       <c r="L8" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>702</v>
@@ -3686,15 +3686,15 @@
         <v>739</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>265</v>
@@ -3718,15 +3718,15 @@
         <v>269</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
@@ -3754,15 +3754,15 @@
         <v>66</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>222</v>
@@ -3786,10 +3786,10 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3822,10 +3822,10 @@
         <v>312</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3854,10 +3854,10 @@
         <v>557</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3886,15 +3886,15 @@
         <v>558</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>598</v>
@@ -3922,15 +3922,15 @@
         <v>602</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>84</v>
@@ -3958,15 +3958,15 @@
         <v>48</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>85</v>
@@ -3994,15 +3994,15 @@
         <v>48</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>86</v>
@@ -4030,15 +4030,15 @@
         <v>48</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>266</v>
@@ -4060,15 +4060,15 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>358</v>
@@ -4096,15 +4096,15 @@
         <v>361</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>362</v>
@@ -4132,15 +4132,15 @@
         <v>365</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>366</v>
@@ -4168,10 +4168,10 @@
         <v>365</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4200,10 +4200,10 @@
         <v>442</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4232,10 +4232,10 @@
         <v>444</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4264,10 +4264,10 @@
         <v>557</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4296,10 +4296,10 @@
         <v>557</v>
       </c>
       <c r="L27" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4328,10 +4328,10 @@
         <v>557</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4360,10 +4360,10 @@
         <v>557</v>
       </c>
       <c r="L29" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4396,10 +4396,10 @@
         <v>612</v>
       </c>
       <c r="L30" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4432,15 +4432,15 @@
         <v>636</v>
       </c>
       <c r="L31" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>110</v>
@@ -4468,10 +4468,10 @@
         <v>113</v>
       </c>
       <c r="L32" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4504,15 +4504,15 @@
         <v>188</v>
       </c>
       <c r="L33" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>704</v>
@@ -4536,10 +4536,10 @@
         <v>740</v>
       </c>
       <c r="L34" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4568,18 +4568,18 @@
         <v>754</v>
       </c>
       <c r="L35" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D36" s="23">
         <v>39490</v>
@@ -4588,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="24">
@@ -4599,18 +4599,18 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L36" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>223</v>
@@ -4634,15 +4634,15 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>367</v>
@@ -4670,10 +4670,10 @@
         <v>365</v>
       </c>
       <c r="L38" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4702,15 +4702,15 @@
         <v>441</v>
       </c>
       <c r="L39" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>572</v>
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>573</v>
@@ -4738,15 +4738,15 @@
         <v>574</v>
       </c>
       <c r="L40" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>700</v>
@@ -4770,15 +4770,15 @@
         <v>736</v>
       </c>
       <c r="L41" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>703</v>
@@ -4802,18 +4802,18 @@
         <v>738</v>
       </c>
       <c r="L42" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D43" s="23">
         <v>39699</v>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="24">
@@ -4833,18 +4833,18 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L43" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>25</v>
@@ -4872,10 +4872,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4908,10 +4908,10 @@
         <v>188</v>
       </c>
       <c r="L45" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4940,10 +4940,10 @@
         <v>461</v>
       </c>
       <c r="L46" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4972,15 +4972,15 @@
         <v>461</v>
       </c>
       <c r="L47" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>575</v>
@@ -4992,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>576</v>
@@ -5008,10 +5008,10 @@
         <v>577</v>
       </c>
       <c r="L48" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5038,15 +5038,15 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>701</v>
@@ -5070,10 +5070,10 @@
         <v>736</v>
       </c>
       <c r="L50" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5106,10 +5106,10 @@
         <v>292</v>
       </c>
       <c r="L51" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5142,15 +5142,15 @@
         <v>308</v>
       </c>
       <c r="L52" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>603</v>
@@ -5176,15 +5176,15 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>662</v>
@@ -5210,15 +5210,15 @@
         <v>661</v>
       </c>
       <c r="L54" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>699</v>
@@ -5242,15 +5242,15 @@
         <v>736</v>
       </c>
       <c r="L55" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>30</v>
@@ -5278,15 +5278,15 @@
         <v>29</v>
       </c>
       <c r="L56" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>31</v>
@@ -5314,15 +5314,15 @@
         <v>29</v>
       </c>
       <c r="L57" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>159</v>
@@ -5332,7 +5332,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>158</v>
@@ -5348,15 +5348,15 @@
         <v>157</v>
       </c>
       <c r="L58" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>182</v>
@@ -5384,15 +5384,15 @@
         <v>179</v>
       </c>
       <c r="L59" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>178</v>
@@ -5420,15 +5420,15 @@
         <v>170</v>
       </c>
       <c r="L60" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>221</v>
@@ -5452,10 +5452,10 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5488,10 +5488,10 @@
         <v>252</v>
       </c>
       <c r="L62" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5524,15 +5524,15 @@
         <v>252</v>
       </c>
       <c r="L63" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>368</v>
@@ -5560,15 +5560,15 @@
         <v>365</v>
       </c>
       <c r="L64" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>391</v>
@@ -5596,15 +5596,15 @@
         <v>394</v>
       </c>
       <c r="L65" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>395</v>
@@ -5632,10 +5632,10 @@
         <v>398</v>
       </c>
       <c r="L66" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5664,10 +5664,10 @@
         <v>442</v>
       </c>
       <c r="L67" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5696,15 +5696,15 @@
         <v>460</v>
       </c>
       <c r="L68" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>480</v>
@@ -5732,15 +5732,15 @@
         <v>484</v>
       </c>
       <c r="L69" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>578</v>
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>579</v>
@@ -5768,10 +5768,10 @@
         <v>580</v>
       </c>
       <c r="L70" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5804,10 +5804,10 @@
         <v>612</v>
       </c>
       <c r="L71" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5834,15 +5834,15 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>32</v>
@@ -5870,15 +5870,15 @@
         <v>35</v>
       </c>
       <c r="L73" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>36</v>
@@ -5906,10 +5906,10 @@
         <v>39</v>
       </c>
       <c r="L74" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>343</v>
@@ -5944,15 +5944,15 @@
         <v>345</v>
       </c>
       <c r="L75" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>399</v>
@@ -5980,10 +5980,10 @@
         <v>398</v>
       </c>
       <c r="L76" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6016,10 +6016,10 @@
         <v>419</v>
       </c>
       <c r="L77" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6052,10 +6052,10 @@
         <v>419</v>
       </c>
       <c r="L78" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6084,10 +6084,10 @@
         <v>441</v>
       </c>
       <c r="L79" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6116,10 +6116,10 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2">
@@ -6148,10 +6148,10 @@
         <v>559</v>
       </c>
       <c r="L81" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6180,10 +6180,10 @@
         <v>560</v>
       </c>
       <c r="L82" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6216,10 +6216,10 @@
         <v>571</v>
       </c>
       <c r="L83" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6246,10 +6246,10 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6276,10 +6276,10 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6306,10 +6306,10 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6336,10 +6336,10 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6366,10 +6366,10 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6396,10 +6396,10 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6426,10 +6426,10 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6458,18 +6458,18 @@
         <v>755</v>
       </c>
       <c r="L91" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D92" s="31">
         <v>39430</v>
@@ -6478,7 +6478,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="24">
@@ -6489,13 +6489,13 @@
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L92" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6528,10 +6528,10 @@
         <v>14</v>
       </c>
       <c r="L93" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6564,15 +6564,15 @@
         <v>14</v>
       </c>
       <c r="L94" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>87</v>
@@ -6600,15 +6600,15 @@
         <v>66</v>
       </c>
       <c r="L95" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>114</v>
@@ -6636,15 +6636,15 @@
         <v>117</v>
       </c>
       <c r="L96" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>118</v>
@@ -6672,15 +6672,15 @@
         <v>117</v>
       </c>
       <c r="L97" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>141</v>
@@ -6708,15 +6708,15 @@
         <v>144</v>
       </c>
       <c r="L98" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>177</v>
@@ -6744,10 +6744,10 @@
         <v>174</v>
       </c>
       <c r="L99" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>343</v>
@@ -6782,15 +6782,15 @@
         <v>345</v>
       </c>
       <c r="L100" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>400</v>
@@ -6818,10 +6818,10 @@
         <v>394</v>
       </c>
       <c r="L101" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6854,10 +6854,10 @@
         <v>419</v>
       </c>
       <c r="L102" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6886,10 +6886,10 @@
         <v>464</v>
       </c>
       <c r="L103" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6918,10 +6918,10 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6950,10 +6950,10 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6982,10 +6982,10 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7014,10 +7014,10 @@
         <v>561</v>
       </c>
       <c r="L107" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7046,10 +7046,10 @@
         <v>560</v>
       </c>
       <c r="L108" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7078,15 +7078,15 @@
         <v>558</v>
       </c>
       <c r="L109" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>581</v>
@@ -7098,7 +7098,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>582</v>
@@ -7114,10 +7114,10 @@
         <v>583</v>
       </c>
       <c r="L110" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7144,10 +7144,10 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7174,10 +7174,10 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7204,10 +7204,10 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7234,10 +7234,10 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7264,10 +7264,10 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7296,10 +7296,10 @@
         <v>756</v>
       </c>
       <c r="L116" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7328,10 +7328,10 @@
         <v>757</v>
       </c>
       <c r="L117" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7360,10 +7360,10 @@
         <v>756</v>
       </c>
       <c r="L118" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7392,18 +7392,18 @@
         <v>755</v>
       </c>
       <c r="L119" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D120" s="3">
         <v>39565</v>
@@ -7412,10 +7412,10 @@
         <v>7</v>
       </c>
       <c r="F120" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="G120" s="33" t="s">
         <v>782</v>
-      </c>
-      <c r="G120" s="33" t="s">
-        <v>783</v>
       </c>
       <c r="H120" s="2">
         <v>1</v>
@@ -7425,13 +7425,13 @@
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L120" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7464,10 +7464,10 @@
         <v>14</v>
       </c>
       <c r="L121" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7500,15 +7500,15 @@
         <v>14</v>
       </c>
       <c r="L122" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>88</v>
@@ -7536,15 +7536,15 @@
         <v>91</v>
       </c>
       <c r="L123" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>92</v>
@@ -7572,15 +7572,15 @@
         <v>91</v>
       </c>
       <c r="L124" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>93</v>
@@ -7608,15 +7608,15 @@
         <v>56</v>
       </c>
       <c r="L125" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>95</v>
@@ -7644,15 +7644,15 @@
         <v>56</v>
       </c>
       <c r="L126" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>96</v>
@@ -7680,15 +7680,15 @@
         <v>56</v>
       </c>
       <c r="L127" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>119</v>
@@ -7716,15 +7716,15 @@
         <v>108</v>
       </c>
       <c r="L128" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>120</v>
@@ -7752,15 +7752,15 @@
         <v>123</v>
       </c>
       <c r="L129" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>124</v>
@@ -7788,15 +7788,15 @@
         <v>127</v>
       </c>
       <c r="L130" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>128</v>
@@ -7824,15 +7824,15 @@
         <v>131</v>
       </c>
       <c r="L131" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>145</v>
@@ -7860,15 +7860,15 @@
         <v>148</v>
       </c>
       <c r="L132" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>173</v>
@@ -7896,10 +7896,10 @@
         <v>170</v>
       </c>
       <c r="L133" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>7</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>193</v>
@@ -7930,10 +7930,10 @@
         <v>194</v>
       </c>
       <c r="L134" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>7</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>196</v>
@@ -7964,15 +7964,15 @@
         <v>197</v>
       </c>
       <c r="L135" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>401</v>
@@ -8000,10 +8000,10 @@
         <v>404</v>
       </c>
       <c r="L136" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8032,10 +8032,10 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8064,10 +8064,10 @@
         <v>558</v>
       </c>
       <c r="L138" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8096,15 +8096,15 @@
         <v>562</v>
       </c>
       <c r="L139" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>584</v>
@@ -8116,7 +8116,7 @@
         <v>7</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>585</v>
@@ -8132,10 +8132,10 @@
         <v>586</v>
       </c>
       <c r="L140" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8168,10 +8168,10 @@
         <v>612</v>
       </c>
       <c r="L141" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8204,15 +8204,15 @@
         <v>620</v>
       </c>
       <c r="L142" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>658</v>
@@ -8238,10 +8238,10 @@
         <v>661</v>
       </c>
       <c r="L143" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8268,10 +8268,10 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8298,10 +8298,10 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8328,10 +8328,10 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8358,10 +8358,10 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8390,18 +8390,18 @@
         <v>758</v>
       </c>
       <c r="L148" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D149" s="34">
         <v>39701</v>
@@ -8410,7 +8410,7 @@
         <v>7</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="24">
@@ -8421,21 +8421,21 @@
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L149" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D150" s="31">
         <v>39507</v>
@@ -8444,7 +8444,7 @@
         <v>7</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="24">
@@ -8455,18 +8455,18 @@
       </c>
       <c r="J150" s="2"/>
       <c r="K150" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L150" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>132</v>
@@ -8494,15 +8494,15 @@
         <v>133</v>
       </c>
       <c r="L151" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>650</v>
@@ -8528,15 +8528,15 @@
         <v>653</v>
       </c>
       <c r="L152" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>593</v>
@@ -8564,10 +8564,10 @@
         <v>596</v>
       </c>
       <c r="L153" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8600,15 +8600,15 @@
         <v>612</v>
       </c>
       <c r="L154" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="186" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>315</v>
@@ -8636,15 +8636,15 @@
         <v>318</v>
       </c>
       <c r="L155" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>709</v>
@@ -8668,15 +8668,15 @@
         <v>733</v>
       </c>
       <c r="L156" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>45</v>
@@ -8704,15 +8704,15 @@
         <v>48</v>
       </c>
       <c r="L157" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>49</v>
@@ -8740,15 +8740,15 @@
         <v>52</v>
       </c>
       <c r="L158" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>53</v>
@@ -8776,15 +8776,15 @@
         <v>56</v>
       </c>
       <c r="L159" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>270</v>
@@ -8808,10 +8808,10 @@
         <v>278</v>
       </c>
       <c r="L160" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8840,15 +8840,15 @@
         <v>441</v>
       </c>
       <c r="L161" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>57</v>
@@ -8876,15 +8876,15 @@
         <v>60</v>
       </c>
       <c r="L162" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>216</v>
@@ -8908,15 +8908,15 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>40</v>
@@ -8944,10 +8944,10 @@
         <v>29</v>
       </c>
       <c r="L164" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8976,15 +8976,15 @@
         <v>441</v>
       </c>
       <c r="L165" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>710</v>
@@ -9008,15 +9008,15 @@
         <v>734</v>
       </c>
       <c r="L166" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>711</v>
@@ -9040,15 +9040,15 @@
         <v>735</v>
       </c>
       <c r="L167" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>712</v>
@@ -9072,15 +9072,15 @@
         <v>735</v>
       </c>
       <c r="L168" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>713</v>
@@ -9104,15 +9104,15 @@
         <v>735</v>
       </c>
       <c r="L169" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>714</v>
@@ -9136,15 +9136,15 @@
         <v>733</v>
       </c>
       <c r="L170" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>134</v>
@@ -9172,15 +9172,15 @@
         <v>117</v>
       </c>
       <c r="L171" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>319</v>
@@ -9208,15 +9208,15 @@
         <v>322</v>
       </c>
       <c r="L172" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>323</v>
@@ -9244,15 +9244,15 @@
         <v>322</v>
       </c>
       <c r="L173" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>324</v>
@@ -9280,15 +9280,15 @@
         <v>322</v>
       </c>
       <c r="L174" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>325</v>
@@ -9316,15 +9316,15 @@
         <v>322</v>
       </c>
       <c r="L175" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>326</v>
@@ -9352,10 +9352,10 @@
         <v>322</v>
       </c>
       <c r="L176" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9388,15 +9388,15 @@
         <v>631</v>
       </c>
       <c r="L177" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>327</v>
@@ -9424,15 +9424,15 @@
         <v>322</v>
       </c>
       <c r="L178" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>328</v>
@@ -9460,15 +9460,15 @@
         <v>322</v>
       </c>
       <c r="L179" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>329</v>
@@ -9496,15 +9496,15 @@
         <v>322</v>
       </c>
       <c r="L180" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>330</v>
@@ -9532,10 +9532,10 @@
         <v>322</v>
       </c>
       <c r="L181" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9568,15 +9568,15 @@
         <v>20</v>
       </c>
       <c r="L182" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>61</v>
@@ -9604,10 +9604,10 @@
         <v>56</v>
       </c>
       <c r="L183" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9636,10 +9636,10 @@
         <v>461</v>
       </c>
       <c r="L184" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9668,15 +9668,15 @@
         <v>563</v>
       </c>
       <c r="L185" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>604</v>
@@ -9702,10 +9702,10 @@
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9734,10 +9734,10 @@
         <v>755</v>
       </c>
       <c r="L187" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9766,18 +9766,18 @@
         <v>754</v>
       </c>
       <c r="L188" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D189" s="38">
         <v>39279</v>
@@ -9786,7 +9786,7 @@
         <v>8</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="19">
@@ -9797,18 +9797,18 @@
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L189" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>63</v>
@@ -9836,15 +9836,15 @@
         <v>66</v>
       </c>
       <c r="L190" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>67</v>
@@ -9872,15 +9872,15 @@
         <v>68</v>
       </c>
       <c r="L191" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>69</v>
@@ -9908,15 +9908,15 @@
         <v>66</v>
       </c>
       <c r="L192" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>225</v>
@@ -9944,15 +9944,15 @@
         <v>228</v>
       </c>
       <c r="L193" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>271</v>
@@ -9976,15 +9976,15 @@
         <v>278</v>
       </c>
       <c r="L194" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>272</v>
@@ -10008,15 +10008,15 @@
         <v>278</v>
       </c>
       <c r="L195" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>331</v>
@@ -10044,15 +10044,15 @@
         <v>334</v>
       </c>
       <c r="L196" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>335</v>
@@ -10080,15 +10080,15 @@
         <v>322</v>
       </c>
       <c r="L197" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>336</v>
@@ -10116,15 +10116,15 @@
         <v>322</v>
       </c>
       <c r="L198" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>369</v>
@@ -10152,10 +10152,10 @@
         <v>365</v>
       </c>
       <c r="L199" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10188,10 +10188,10 @@
         <v>389</v>
       </c>
       <c r="L200" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10220,10 +10220,10 @@
         <v>442</v>
       </c>
       <c r="L201" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10252,10 +10252,10 @@
         <v>443</v>
       </c>
       <c r="L202" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10284,10 +10284,10 @@
         <v>444</v>
       </c>
       <c r="L203" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10316,10 +10316,10 @@
         <v>444</v>
       </c>
       <c r="L204" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10352,15 +10352,15 @@
         <v>626</v>
       </c>
       <c r="L205" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>715</v>
@@ -10384,15 +10384,15 @@
         <v>736</v>
       </c>
       <c r="L206" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>70</v>
@@ -10420,15 +10420,15 @@
         <v>60</v>
       </c>
       <c r="L207" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>163</v>
@@ -10454,15 +10454,15 @@
         <v>165</v>
       </c>
       <c r="L208" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>162</v>
@@ -10488,15 +10488,15 @@
         <v>165</v>
       </c>
       <c r="L209" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>210</v>
@@ -10508,7 +10508,7 @@
         <v>8</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>211</v>
@@ -10524,15 +10524,15 @@
         <v>212</v>
       </c>
       <c r="L210" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>587</v>
@@ -10544,7 +10544,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>579</v>
@@ -10560,15 +10560,15 @@
         <v>580</v>
       </c>
       <c r="L211" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>654</v>
@@ -10594,10 +10594,10 @@
         <v>657</v>
       </c>
       <c r="L212" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -10626,10 +10626,10 @@
         <v>755</v>
       </c>
       <c r="L213" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -10658,18 +10658,18 @@
         <v>758</v>
       </c>
       <c r="L214" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D215" s="23">
         <v>39206</v>
@@ -10678,7 +10678,7 @@
         <v>8</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="24">
@@ -10689,18 +10689,18 @@
       </c>
       <c r="J215" s="2"/>
       <c r="K215" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L215" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>161</v>
@@ -10710,7 +10710,7 @@
         <v>8</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>158</v>
@@ -10726,10 +10726,10 @@
         <v>164</v>
       </c>
       <c r="L216" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>8</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>348</v>
@@ -10764,15 +10764,15 @@
         <v>349</v>
       </c>
       <c r="L217" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>370</v>
@@ -10800,10 +10800,10 @@
         <v>365</v>
       </c>
       <c r="L218" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -10832,15 +10832,15 @@
         <v>444</v>
       </c>
       <c r="L219" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>716</v>
@@ -10864,15 +10864,15 @@
         <v>737</v>
       </c>
       <c r="L220" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>717</v>
@@ -10896,15 +10896,15 @@
         <v>737</v>
       </c>
       <c r="L221" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>718</v>
@@ -10928,15 +10928,15 @@
         <v>737</v>
       </c>
       <c r="L222" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>719</v>
@@ -10960,15 +10960,15 @@
         <v>734</v>
       </c>
       <c r="L223" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>720</v>
@@ -10992,15 +10992,15 @@
         <v>738</v>
       </c>
       <c r="L224" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>721</v>
@@ -11024,15 +11024,15 @@
         <v>733</v>
       </c>
       <c r="L225" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>722</v>
@@ -11056,15 +11056,15 @@
         <v>733</v>
       </c>
       <c r="L226" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>723</v>
@@ -11088,10 +11088,10 @@
         <v>733</v>
       </c>
       <c r="L227" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11124,15 +11124,15 @@
         <v>20</v>
       </c>
       <c r="L228" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>160</v>
@@ -11142,7 +11142,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>158</v>
@@ -11158,10 +11158,10 @@
         <v>164</v>
       </c>
       <c r="L229" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11194,15 +11194,15 @@
         <v>292</v>
       </c>
       <c r="L230" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>371</v>
@@ -11230,15 +11230,15 @@
         <v>365</v>
       </c>
       <c r="L231" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>372</v>
@@ -11266,15 +11266,15 @@
         <v>373</v>
       </c>
       <c r="L232" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>405</v>
@@ -11302,10 +11302,10 @@
         <v>394</v>
       </c>
       <c r="L233" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11334,10 +11334,10 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11366,10 +11366,10 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>8</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1">
@@ -11398,15 +11398,15 @@
         <v>564</v>
       </c>
       <c r="L236" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>588</v>
@@ -11418,7 +11418,7 @@
         <v>8</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>579</v>
@@ -11434,15 +11434,15 @@
         <v>580</v>
       </c>
       <c r="L237" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>589</v>
@@ -11454,7 +11454,7 @@
         <v>8</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>585</v>
@@ -11470,15 +11470,15 @@
         <v>586</v>
       </c>
       <c r="L238" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>590</v>
@@ -11490,7 +11490,7 @@
         <v>8</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>576</v>
@@ -11506,10 +11506,10 @@
         <v>577</v>
       </c>
       <c r="L239" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11538,10 +11538,10 @@
         <v>758</v>
       </c>
       <c r="L240" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11574,10 +11574,10 @@
         <v>20</v>
       </c>
       <c r="L241" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11610,15 +11610,15 @@
         <v>20</v>
       </c>
       <c r="L242" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" ht="155" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>204</v>
@@ -11646,10 +11646,10 @@
         <v>207</v>
       </c>
       <c r="L243" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>8</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>348</v>
@@ -11684,15 +11684,15 @@
         <v>349</v>
       </c>
       <c r="L244" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>406</v>
@@ -11720,10 +11720,10 @@
         <v>394</v>
       </c>
       <c r="L245" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11752,15 +11752,15 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>724</v>
@@ -11784,15 +11784,15 @@
         <v>733</v>
       </c>
       <c r="L247" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>168</v>
@@ -11802,7 +11802,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>158</v>
@@ -11818,15 +11818,15 @@
         <v>164</v>
       </c>
       <c r="L248" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>169</v>
@@ -11852,15 +11852,15 @@
         <v>165</v>
       </c>
       <c r="L249" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>183</v>
@@ -11888,10 +11888,10 @@
         <v>170</v>
       </c>
       <c r="L250" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="251" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>8</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>196</v>
@@ -11922,10 +11922,10 @@
         <v>197</v>
       </c>
       <c r="L251" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="252" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>8</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>196</v>
@@ -11956,15 +11956,15 @@
         <v>197</v>
       </c>
       <c r="L252" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" ht="155" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>208</v>
@@ -11992,15 +11992,15 @@
         <v>207</v>
       </c>
       <c r="L253" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>220</v>
@@ -12024,10 +12024,10 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -12060,10 +12060,10 @@
         <v>262</v>
       </c>
       <c r="L255" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="256" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -12096,10 +12096,10 @@
         <v>252</v>
       </c>
       <c r="L256" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -12132,15 +12132,15 @@
         <v>296</v>
       </c>
       <c r="L257" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>374</v>
@@ -12168,15 +12168,15 @@
         <v>365</v>
       </c>
       <c r="L258" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>375</v>
@@ -12204,15 +12204,15 @@
         <v>365</v>
       </c>
       <c r="L259" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>376</v>
@@ -12240,10 +12240,10 @@
         <v>379</v>
       </c>
       <c r="L260" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="261" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -12272,10 +12272,10 @@
         <v>478</v>
       </c>
       <c r="L261" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -12304,10 +12304,10 @@
         <v>478</v>
       </c>
       <c r="L262" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -12336,10 +12336,10 @@
         <v>479</v>
       </c>
       <c r="L263" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -12368,10 +12368,10 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -12400,10 +12400,10 @@
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
       <c r="L265" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="266" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12432,10 +12432,10 @@
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12464,10 +12464,10 @@
         <v>557</v>
       </c>
       <c r="L267" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>8</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1">
@@ -12496,15 +12496,15 @@
         <v>559</v>
       </c>
       <c r="L268" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>591</v>
@@ -12516,7 +12516,7 @@
         <v>8</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>579</v>
@@ -12532,10 +12532,10 @@
         <v>580</v>
       </c>
       <c r="L269" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12568,10 +12568,10 @@
         <v>620</v>
       </c>
       <c r="L270" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -12604,10 +12604,10 @@
         <v>631</v>
       </c>
       <c r="L271" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -12640,10 +12640,10 @@
         <v>641</v>
       </c>
       <c r="L272" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12670,10 +12670,10 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -12702,10 +12702,10 @@
         <v>755</v>
       </c>
       <c r="L274" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12731,21 +12731,21 @@
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1" t="s">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="L275" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D276" s="23">
         <v>39207</v>
@@ -12754,7 +12754,7 @@
         <v>8</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G276" s="2"/>
       <c r="H276" s="24">
@@ -12765,21 +12765,21 @@
       </c>
       <c r="J276" s="2"/>
       <c r="K276" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L276" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D277" s="44">
         <v>39369</v>
@@ -12788,7 +12788,7 @@
         <v>8</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G277" s="2"/>
       <c r="H277" s="24">
@@ -12799,18 +12799,18 @@
       </c>
       <c r="J277" s="2"/>
       <c r="K277" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L277" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>71</v>
@@ -12838,15 +12838,15 @@
         <v>66</v>
       </c>
       <c r="L278" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>72</v>
@@ -12874,15 +12874,15 @@
         <v>48</v>
       </c>
       <c r="L279" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>73</v>
@@ -12910,15 +12910,15 @@
         <v>48</v>
       </c>
       <c r="L280" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>98</v>
@@ -12942,15 +12942,15 @@
         <v>104</v>
       </c>
       <c r="L281" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>135</v>
@@ -12978,15 +12978,15 @@
         <v>117</v>
       </c>
       <c r="L282" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>136</v>
@@ -13014,10 +13014,10 @@
         <v>133</v>
       </c>
       <c r="L283" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>8</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>196</v>
@@ -13048,15 +13048,15 @@
         <v>197</v>
       </c>
       <c r="L284" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>219</v>
@@ -13080,15 +13080,15 @@
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>229</v>
@@ -13116,15 +13116,15 @@
         <v>232</v>
       </c>
       <c r="L286" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C287" s="14" t="s">
         <v>233</v>
@@ -13152,15 +13152,15 @@
         <v>232</v>
       </c>
       <c r="L287" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>234</v>
@@ -13188,10 +13188,10 @@
         <v>232</v>
       </c>
       <c r="L288" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>8</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>298</v>
@@ -13224,10 +13224,10 @@
         <v>299</v>
       </c>
       <c r="L289" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -13260,10 +13260,10 @@
         <v>296</v>
       </c>
       <c r="L290" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>8</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>352</v>
@@ -13298,10 +13298,10 @@
         <v>353</v>
       </c>
       <c r="L291" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" ht="155" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -13334,10 +13334,10 @@
         <v>425</v>
       </c>
       <c r="L292" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -13366,10 +13366,10 @@
         <v>478</v>
       </c>
       <c r="L293" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -13398,10 +13398,10 @@
         <v>478</v>
       </c>
       <c r="L294" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -13430,10 +13430,10 @@
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -13462,10 +13462,10 @@
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -13494,10 +13494,10 @@
         <v>559</v>
       </c>
       <c r="L297" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -13524,10 +13524,10 @@
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -13554,10 +13554,10 @@
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
       <c r="L299" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -13583,13 +13583,13 @@
       </c>
       <c r="J300" s="1"/>
       <c r="K300" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L300" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -13615,13 +13615,13 @@
       </c>
       <c r="J301" s="1"/>
       <c r="K301" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L301" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -13647,21 +13647,21 @@
       </c>
       <c r="J302" s="1"/>
       <c r="K302" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L302" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D303" s="10">
         <v>39201</v>
@@ -13670,10 +13670,10 @@
         <v>8</v>
       </c>
       <c r="F303" s="45" t="s">
+        <v>786</v>
+      </c>
+      <c r="G303" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="G303" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="H303" s="1">
         <v>2</v>
@@ -13683,18 +13683,18 @@
       </c>
       <c r="J303" s="1"/>
       <c r="K303" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L303" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C304" s="15" t="s">
         <v>74</v>
@@ -13722,15 +13722,15 @@
         <v>60</v>
       </c>
       <c r="L304" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C305" s="15" t="s">
         <v>75</v>
@@ -13758,15 +13758,15 @@
         <v>60</v>
       </c>
       <c r="L305" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>76</v>
@@ -13794,15 +13794,15 @@
         <v>52</v>
       </c>
       <c r="L306" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>99</v>
@@ -13826,15 +13826,15 @@
         <v>104</v>
       </c>
       <c r="L307" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>137</v>
@@ -13862,10 +13862,10 @@
         <v>140</v>
       </c>
       <c r="L308" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>8</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>196</v>
@@ -13896,15 +13896,15 @@
         <v>197</v>
       </c>
       <c r="L309" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" ht="155" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="156" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>209</v>
@@ -13932,15 +13932,15 @@
         <v>207</v>
       </c>
       <c r="L310" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C311" s="14" t="s">
         <v>235</v>
@@ -13966,15 +13966,15 @@
         <v>237</v>
       </c>
       <c r="L311" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>238</v>
@@ -14000,15 +14000,15 @@
         <v>237</v>
       </c>
       <c r="L312" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>239</v>
@@ -14036,15 +14036,15 @@
         <v>232</v>
       </c>
       <c r="L313" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>240</v>
@@ -14072,15 +14072,15 @@
         <v>232</v>
       </c>
       <c r="L314" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>241</v>
@@ -14108,15 +14108,15 @@
         <v>242</v>
       </c>
       <c r="L315" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>243</v>
@@ -14144,15 +14144,15 @@
         <v>246</v>
       </c>
       <c r="L316" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>247</v>
@@ -14180,15 +14180,15 @@
         <v>246</v>
       </c>
       <c r="L317" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C318" s="14" t="s">
         <v>248</v>
@@ -14216,10 +14216,10 @@
         <v>246</v>
       </c>
       <c r="L318" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -14252,10 +14252,10 @@
         <v>283</v>
       </c>
       <c r="L319" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -14288,10 +14288,10 @@
         <v>283</v>
       </c>
       <c r="L320" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -14324,10 +14324,10 @@
         <v>283</v>
       </c>
       <c r="L321" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>8</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>302</v>
@@ -14360,10 +14360,10 @@
         <v>303</v>
       </c>
       <c r="L322" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -14396,15 +14396,15 @@
         <v>296</v>
       </c>
       <c r="L323" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>337</v>
@@ -14432,15 +14432,15 @@
         <v>340</v>
       </c>
       <c r="L324" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>407</v>
@@ -14468,10 +14468,10 @@
         <v>394</v>
       </c>
       <c r="L325" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -14500,10 +14500,10 @@
         <v>477</v>
       </c>
       <c r="L326" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -14532,10 +14532,10 @@
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -14564,10 +14564,10 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -14596,10 +14596,10 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -14628,15 +14628,15 @@
         <v>565</v>
       </c>
       <c r="L330" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>592</v>
@@ -14648,7 +14648,7 @@
         <v>8</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>576</v>
@@ -14664,10 +14664,10 @@
         <v>577</v>
       </c>
       <c r="L331" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -14694,10 +14694,10 @@
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
       <c r="L332" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -14724,10 +14724,10 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -14754,10 +14754,10 @@
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
       <c r="L334" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -14783,13 +14783,13 @@
       </c>
       <c r="J335" s="1"/>
       <c r="K335" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L335" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -14815,13 +14815,13 @@
       </c>
       <c r="J336" s="1"/>
       <c r="K336" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L336" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -14847,13 +14847,13 @@
       </c>
       <c r="J337" s="1"/>
       <c r="K337" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L337" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -14879,21 +14879,21 @@
       </c>
       <c r="J338" s="1"/>
       <c r="K338" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L338" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D339" s="10">
         <v>39461</v>
@@ -14902,10 +14902,10 @@
         <v>8</v>
       </c>
       <c r="F339" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="G339" s="45" t="s">
         <v>782</v>
-      </c>
-      <c r="G339" s="45" t="s">
-        <v>783</v>
       </c>
       <c r="H339" s="1">
         <v>1</v>
@@ -14915,18 +14915,18 @@
       </c>
       <c r="J339" s="1"/>
       <c r="K339" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L339" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>42</v>
@@ -14954,15 +14954,15 @@
         <v>43</v>
       </c>
       <c r="L340" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="341" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>44</v>
@@ -14990,15 +14990,15 @@
         <v>29</v>
       </c>
       <c r="L341" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="342" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>77</v>
@@ -15026,15 +15026,15 @@
         <v>66</v>
       </c>
       <c r="L342" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C343" s="15" t="s">
         <v>78</v>
@@ -15062,15 +15062,15 @@
         <v>60</v>
       </c>
       <c r="L343" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="344" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>80</v>
@@ -15098,15 +15098,15 @@
         <v>52</v>
       </c>
       <c r="L344" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="345" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>81</v>
@@ -15134,15 +15134,15 @@
         <v>56</v>
       </c>
       <c r="L345" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="346" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>100</v>
@@ -15166,15 +15166,15 @@
         <v>104</v>
       </c>
       <c r="L346" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>101</v>
@@ -15198,15 +15198,15 @@
         <v>104</v>
       </c>
       <c r="L347" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>102</v>
@@ -15230,15 +15230,15 @@
         <v>104</v>
       </c>
       <c r="L348" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>149</v>
@@ -15266,15 +15266,15 @@
         <v>152</v>
       </c>
       <c r="L349" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>153</v>
@@ -15302,10 +15302,10 @@
         <v>156</v>
       </c>
       <c r="L350" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="351" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>8</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>196</v>
@@ -15336,10 +15336,10 @@
         <v>197</v>
       </c>
       <c r="L351" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="352" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>8</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>196</v>
@@ -15370,15 +15370,15 @@
         <v>197</v>
       </c>
       <c r="L352" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>213</v>
@@ -15390,7 +15390,7 @@
         <v>8</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>214</v>
@@ -15406,15 +15406,15 @@
         <v>215</v>
       </c>
       <c r="L353" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C354" s="14" t="s">
         <v>249</v>
@@ -15442,15 +15442,15 @@
         <v>232</v>
       </c>
       <c r="L354" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C355" s="14" t="s">
         <v>250</v>
@@ -15478,15 +15478,15 @@
         <v>232</v>
       </c>
       <c r="L355" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C356" s="14" t="s">
         <v>251</v>
@@ -15514,15 +15514,15 @@
         <v>242</v>
       </c>
       <c r="L356" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>273</v>
@@ -15546,15 +15546,15 @@
         <v>279</v>
       </c>
       <c r="L357" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>274</v>
@@ -15578,15 +15578,15 @@
         <v>278</v>
       </c>
       <c r="L358" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>275</v>
@@ -15610,10 +15610,10 @@
         <v>278</v>
       </c>
       <c r="L359" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="360" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -15646,10 +15646,10 @@
         <v>283</v>
       </c>
       <c r="L360" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -15682,10 +15682,10 @@
         <v>308</v>
       </c>
       <c r="L361" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="362" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>8</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>352</v>
@@ -15720,10 +15720,10 @@
         <v>353</v>
       </c>
       <c r="L362" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>8</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>356</v>
@@ -15758,15 +15758,15 @@
         <v>357</v>
       </c>
       <c r="L363" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="364" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>380</v>
@@ -15794,15 +15794,15 @@
         <v>379</v>
       </c>
       <c r="L364" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="365" spans="1:12" ht="108.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>381</v>
@@ -15830,10 +15830,10 @@
         <v>384</v>
       </c>
       <c r="L365" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -15866,15 +15866,15 @@
         <v>389</v>
       </c>
       <c r="L366" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>408</v>
@@ -15902,15 +15902,15 @@
         <v>411</v>
       </c>
       <c r="L367" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="368" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>412</v>
@@ -15938,15 +15938,15 @@
         <v>394</v>
       </c>
       <c r="L368" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="369" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>413</v>
@@ -15974,15 +15974,15 @@
         <v>394</v>
       </c>
       <c r="L369" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>414</v>
@@ -16010,10 +16010,10 @@
         <v>394</v>
       </c>
       <c r="L370" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="371" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -16042,10 +16042,10 @@
         <v>442</v>
       </c>
       <c r="L371" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="372" spans="1:12" ht="93" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -16074,10 +16074,10 @@
         <v>445</v>
       </c>
       <c r="L372" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -16106,15 +16106,15 @@
         <v>477</v>
       </c>
       <c r="L373" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>485</v>
@@ -16142,10 +16142,10 @@
         <v>488</v>
       </c>
       <c r="L374" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="375" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -16174,10 +16174,10 @@
         <v>557</v>
       </c>
       <c r="L375" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="376" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -16206,10 +16206,10 @@
         <v>561</v>
       </c>
       <c r="L376" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="377" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -16238,10 +16238,10 @@
         <v>561</v>
       </c>
       <c r="L377" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="378" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>8</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G378" s="1"/>
       <c r="H378" s="1">
@@ -16270,10 +16270,10 @@
         <v>566</v>
       </c>
       <c r="L378" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="379" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>8</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G379" s="1"/>
       <c r="H379" s="1">
@@ -16302,10 +16302,10 @@
         <v>564</v>
       </c>
       <c r="L379" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="380" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -16334,15 +16334,15 @@
         <v>562</v>
       </c>
       <c r="L380" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12" ht="139.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>597</v>
@@ -16370,10 +16370,10 @@
         <v>596</v>
       </c>
       <c r="L381" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="382" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -16406,10 +16406,10 @@
         <v>616</v>
       </c>
       <c r="L382" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="383" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -16442,10 +16442,10 @@
         <v>620</v>
       </c>
       <c r="L383" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="384" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -16478,10 +16478,10 @@
         <v>620</v>
       </c>
       <c r="L384" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="385" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -16514,10 +16514,10 @@
         <v>626</v>
       </c>
       <c r="L385" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="386" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -16550,10 +16550,10 @@
         <v>636</v>
       </c>
       <c r="L386" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="387" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -16586,10 +16586,10 @@
         <v>636</v>
       </c>
       <c r="L387" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="388" spans="1:12" ht="124" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -16622,10 +16622,10 @@
         <v>641</v>
       </c>
       <c r="L388" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="389" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -16652,10 +16652,10 @@
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
       <c r="L389" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="390" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -16682,15 +16682,15 @@
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
       <c r="L390" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="391" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>725</v>
@@ -16714,15 +16714,15 @@
         <v>737</v>
       </c>
       <c r="L391" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="392" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>726</v>
@@ -16746,15 +16746,15 @@
         <v>737</v>
       </c>
       <c r="L392" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="393" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>727</v>
@@ -16778,15 +16778,15 @@
         <v>736</v>
       </c>
       <c r="L393" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="394" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>728</v>
@@ -16810,15 +16810,15 @@
         <v>734</v>
       </c>
       <c r="L394" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>729</v>
@@ -16842,10 +16842,10 @@
         <v>733</v>
       </c>
       <c r="L395" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -16871,13 +16871,13 @@
       </c>
       <c r="J396" s="1"/>
       <c r="K396" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L396" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -16903,13 +16903,13 @@
       </c>
       <c r="J397" s="1"/>
       <c r="K397" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L397" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="398" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -16938,18 +16938,18 @@
         <v>758</v>
       </c>
       <c r="L398" s="48" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="399" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D399" s="23">
         <v>39075</v>
@@ -16958,7 +16958,7 @@
         <v>8</v>
       </c>
       <c r="F399" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G399" s="2"/>
       <c r="H399" s="24">
@@ -16969,21 +16969,21 @@
       </c>
       <c r="J399" s="2"/>
       <c r="K399" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L399" s="48" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="400" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D400" s="23">
         <v>39372</v>
@@ -16992,7 +16992,7 @@
         <v>8</v>
       </c>
       <c r="F400" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G400" s="2"/>
       <c r="H400" s="24">
@@ -17003,10 +17003,10 @@
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L400" s="48" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -17038,7 +17038,7 @@
     <protectedRange password="C495" sqref="C278" name="Диапазон1_2_1" securityDescriptor="O:WDG:WDD:(D;;CC;;;WD)"/>
   </protectedRanges>
   <autoFilter ref="A1:L400" xr:uid="{612D8132-6242-4CCF-BA6D-553B63A99DD8}"/>
-  <sortState ref="B2:K150">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K150">
     <sortCondition descending="1" ref="H2:H150"/>
   </sortState>
   <conditionalFormatting sqref="G44">
@@ -17106,7 +17106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ecxel/Таблица.xlsx
+++ b/Ecxel/Таблица.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97067DB0-B1DE-484C-853B-B6B90127930E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27388864-D972-45B2-B0EC-237E67DDB3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2275,9 +2275,6 @@
     <t>МАОУ «Лицей № 36»</t>
   </si>
   <si>
-    <t>МАОУ «Средняя школа  № 3 с углубленным изучением отдельных предметов»</t>
-  </si>
-  <si>
     <t>МАОУ средняя школа № 2 г. Ворсма</t>
   </si>
   <si>
@@ -2287,45 +2284,21 @@
     <t>МАОУ "Лицей № 82"</t>
   </si>
   <si>
-    <t xml:space="preserve">МАОУ «Средняя общеобразовательная школа № 2 р.п. Красные Баки» </t>
-  </si>
-  <si>
-    <t>МАОУ "Школа  № 118 с углубленным изучением отдельных предметов"</t>
-  </si>
-  <si>
-    <t>МАОУ "Школа с углубленным изучением отдельных предметов № 85" </t>
-  </si>
-  <si>
-    <t>МАОУ "Уренская средняя общеоразовательная школа № 2" Уренского муниципального округа Нижегородской области</t>
-  </si>
-  <si>
     <t>МАОУ «Лицей № 28 имени академика Б.А.Королёва»</t>
   </si>
   <si>
-    <t>МАОУ «Средняя школа  № 8 с углубленным изучением отдельных предметов»</t>
-  </si>
-  <si>
     <t>МАОУ основная школа д. Лаптево</t>
   </si>
   <si>
     <t>МАОУ "Гимназия №2"</t>
   </si>
   <si>
-    <t>МАОУ городского округа Перевозский Нижегородской области "Средняя школа № 1 г. Перевоза"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАОУ «Средняя общеобразовательная школа № 1 р.п. Красные Баки» </t>
-  </si>
-  <si>
     <t>МАОУ "Натальинскаясредняя школа"</t>
   </si>
   <si>
     <t>МАОУ "Гимназия № 67"</t>
   </si>
   <si>
-    <t>МАОУ городского округа Перевозский Нижегородской области "Средняя школа № 2 г. Перевоза"</t>
-  </si>
-  <si>
     <t>МАОУ средняя школа № 16 г. Павлово</t>
   </si>
   <si>
@@ -2353,9 +2326,6 @@
     <t>МБОУ Воротынская средняя школа</t>
   </si>
   <si>
-    <t>МБОУ "Средняя общеобразовательная школа №4"</t>
-  </si>
-  <si>
     <t>МБОУ "Средняя школа №3 г. Навашино"</t>
   </si>
   <si>
@@ -2392,15 +2362,6 @@
     <t>МБОУ Семьянская средняя школа</t>
   </si>
   <si>
-    <t>МБОУ "Средняя общеобразовательная школа № 14 с углубленным изучением отдельных предметов"</t>
-  </si>
-  <si>
-    <t>МБОУ "Средняя общеобразовательная школа №6 им. К. Минина"</t>
-  </si>
-  <si>
-    <t>МБОУ "Дивеевская средняя общеобразовательная школа"</t>
-  </si>
-  <si>
     <t>МБОУ  Спасская средняя школа</t>
   </si>
   <si>
@@ -2425,9 +2386,6 @@
     <t>МБОУ Васильсурская средняя школа</t>
   </si>
   <si>
-    <t>МБОУ  "Сергачская средняя общеобразовательная школа № 5"</t>
-  </si>
-  <si>
     <t>МБОУ средняя школа № 8</t>
   </si>
   <si>
@@ -2437,9 +2395,6 @@
     <t>МБОУ «Школа № 127»</t>
   </si>
   <si>
-    <t>МБОУ «Школа № 12 с углубленным изучением отдельных предметов имени Е.П. Шнитникова»</t>
-  </si>
-  <si>
     <t>МБОУ "Ардатовская средняя школа №1"</t>
   </si>
   <si>
@@ -2458,9 +2413,6 @@
     <t>МБОУ Барминская средняя школа</t>
   </si>
   <si>
-    <t>МБОУ "Карповская средняя общеоразовательная школа" Уренского муниципального округа Нижегородской области</t>
-  </si>
-  <si>
     <t>МБОУ Мотмосская средняя школа</t>
   </si>
   <si>
@@ -2473,9 +2425,6 @@
     <t>МБОУ "Средняя школа № 18"</t>
   </si>
   <si>
-    <t>МБОУ "Арьёвская средняя общеоразовательная школа" Уренского муниципального округа Нижегородской области</t>
-  </si>
-  <si>
     <t>МБОУ "Школа № 117"</t>
   </si>
   <si>
@@ -2488,24 +2437,12 @@
     <t>МБОУ Ясенецкая средняя школа</t>
   </si>
   <si>
-    <t>МБОУ "Средняя школа № 19 с углубленным изучением отдельных предметов"</t>
-  </si>
-  <si>
-    <t>МБОУ "Больше-Череватовская основная общеобразовательная школа"</t>
-  </si>
-  <si>
-    <t>МБОУ "Сергачская средняя общеобразовательная школа №1"</t>
-  </si>
-  <si>
     <t>МБОУ «Гимназия № 136»</t>
   </si>
   <si>
     <t>МБОУ "Ковригинская сосновная школа"</t>
   </si>
   <si>
-    <t>МБОУ "Б. Терсенская средняя общеоразовательная школа" Уренского муниципального округа Нижегородской области</t>
-  </si>
-  <si>
     <t>МБОУ "Роговская основная школа"</t>
   </si>
   <si>
@@ -2527,9 +2464,6 @@
     <t>МБОУ Шахунская средняя школа №2</t>
   </si>
   <si>
-    <t>МАУО «Ждановская средняя школа им.Героя Советского Союза В.П.Мухина»</t>
-  </si>
-  <si>
     <t>МОУ "Силинская основная школа"</t>
   </si>
   <si>
@@ -2539,9 +2473,6 @@
     <t>МБОУ Бутурлинская средняя школа имени В.И.Казакова</t>
   </si>
   <si>
-    <t>МАОУ «Ждановская средняя школа им.Героя Советского Союза В.П.Мухина»</t>
-  </si>
-  <si>
     <t>МОУ "Красноборская средняя школа"</t>
   </si>
   <si>
@@ -2551,31 +2482,99 @@
     <t>МАОУ «Первомайская средняя школа»</t>
   </si>
   <si>
-    <t>Филиал МБОУ Сосновская средняя школа №2 "Крутецкая основная школа"</t>
-  </si>
-  <si>
     <t>МОУ "Шараповская средняя школа"</t>
   </si>
   <si>
-    <t>Филиал МБОУ Мурзицкой средней школы - Кочетовская основная школа</t>
+    <t>МОУ "Великовражская основная школа"</t>
+  </si>
+  <si>
+    <t>МБОУ Шахунская средняя школа №14</t>
+  </si>
+  <si>
+    <t>МБОУ «Новоликеевская средняя школа»</t>
+  </si>
+  <si>
+    <t>МБОУ "Карповская средняя школа"</t>
+  </si>
+  <si>
+    <t>МАОУ "Школа с УИОП № 85" </t>
+  </si>
+  <si>
+    <t>МБОУ "Средняя школа №4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАОУ «Средняя школа № 2 р.п. Красные Баки» </t>
+  </si>
+  <si>
+    <t>МБОУ "Средняя школа №6 им. К. Минина"</t>
+  </si>
+  <si>
+    <t>МБОУ "Дивеевская средняя школа"</t>
+  </si>
+  <si>
+    <t>МБОУ  "Сергачская средняя школа № 5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАОУ «Средняя школа № 1 р.п. Красные Баки» </t>
+  </si>
+  <si>
+    <t>МБОУ "Больше-Череватовская основная школа"</t>
+  </si>
+  <si>
+    <t>МБОУ "Сергачская средняя школа №1"</t>
+  </si>
+  <si>
+    <t>МАОУ "Уренская средняя школа № 2"</t>
+  </si>
+  <si>
+    <t>МБОУ "Арьёвская средняя школа"</t>
+  </si>
+  <si>
+    <t>МБОУ "Б. Терсенская средняя школа"</t>
+  </si>
+  <si>
+    <t>МАОУ «Средняя школа  № 3 с УИОП»</t>
+  </si>
+  <si>
+    <t>МБОУ "Средняя школа № 14 с УИОП"</t>
+  </si>
+  <si>
+    <t>МБОУ «Школа № 12 с УИОП имени Е.П. Шнитникова»</t>
+  </si>
+  <si>
+    <t>МАОУ "Школа  № 118 с УИОП"</t>
+  </si>
+  <si>
+    <t>МАОУ «Средняя школа  № 8 с УИОП»</t>
+  </si>
+  <si>
+    <t>МБОУ "Средняя школа № 19 с УИОП"</t>
+  </si>
+  <si>
+    <t>МАОУ "Средняя школа № 1 г. Перевоза"</t>
+  </si>
+  <si>
+    <t>МАОУ "Средняя школа № 2 г. Перевоза"</t>
+  </si>
+  <si>
+    <t>МАУО «средняя школа им.Героя Советского Союза В.П.Мухина»</t>
+  </si>
+  <si>
+    <t>МАОУ «средняя школа им.Героя Советского Союза В.П.Мухина»</t>
+  </si>
+  <si>
+    <t>ГБОУ "Кадетский корпус имени генерала армии Маргелова В.Ф."</t>
+  </si>
+  <si>
+    <t>Филиал МБОУ Сосновская СШ №2 "Крутецкая ОШ"</t>
+  </si>
+  <si>
+    <t>Филиал МБОУ Мурзицкой СШ - Кочетовская ОШ</t>
   </si>
   <si>
     <t>Филиал МБОУ "Сосновская
- средняя школа № 1"
- "Рожковская основная 
-школа"</t>
-  </si>
-  <si>
-    <t>МОУ "Великовражская основная школа"</t>
-  </si>
-  <si>
-    <t>МБОУ Шахунская средняя школа №14</t>
-  </si>
-  <si>
-    <t>МБОУ «Новоликеевская средняя школа»</t>
-  </si>
-  <si>
-    <t>ГБОУ "Нижегородский кадетский корпус Приволжского федерального округа имени генерала армии Маргелова В.Ф."</t>
+ СШ № 1"
+ "Рожковская ОШ"</t>
   </si>
 </sst>
 </file>
@@ -3394,8 +3393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="M320" sqref="M320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>536</v>
@@ -3598,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>536</v>
@@ -3616,7 +3615,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="20">
@@ -3761,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>56</v>
@@ -3794,7 +3793,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>189</v>
@@ -3827,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>272</v>
@@ -3922,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>529</v>
@@ -3957,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>41</v>
@@ -3992,7 +3991,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>41</v>
@@ -4027,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>41</v>
@@ -4091,7 +4090,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>315</v>
@@ -4126,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>318</v>
@@ -4161,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>318</v>
@@ -4225,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="20">
@@ -4382,7 +4381,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>536</v>
@@ -4417,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>555</v>
@@ -4452,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -4584,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G36" s="31"/>
       <c r="H36" s="15">
@@ -4615,7 +4614,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>189</v>
@@ -4648,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>318</v>
@@ -4681,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="20">
@@ -4714,7 +4713,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>503</v>
@@ -4811,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="15">
@@ -4844,7 +4843,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>24</v>
@@ -4912,7 +4911,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="20">
@@ -4943,7 +4942,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="20">
@@ -4976,7 +4975,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>506</v>
@@ -5071,7 +5070,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>255</v>
@@ -5106,7 +5105,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>269</v>
@@ -5139,7 +5138,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>529</v>
@@ -5170,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>576</v>
@@ -5236,7 +5235,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>24</v>
@@ -5271,7 +5270,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>24</v>
@@ -5304,7 +5303,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>136</v>
@@ -5339,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>155</v>
@@ -5374,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>148</v>
@@ -5407,7 +5406,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="31" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>189</v>
@@ -5440,7 +5439,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>752</v>
+        <v>824</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>221</v>
@@ -5475,7 +5474,7 @@
         <v>7</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>752</v>
+        <v>824</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>221</v>
@@ -5510,7 +5509,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>318</v>
@@ -5545,7 +5544,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>343</v>
@@ -5580,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>346</v>
@@ -5644,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G68" s="31"/>
       <c r="H68" s="20">
@@ -5677,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="31" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>415</v>
@@ -5712,7 +5711,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>509</v>
@@ -5747,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>536</v>
@@ -5811,7 +5810,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>30</v>
@@ -5846,7 +5845,7 @@
         <v>7</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>788</v>
+        <v>825</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>33</v>
@@ -5881,7 +5880,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>300</v>
@@ -5916,7 +5915,7 @@
         <v>7</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>346</v>
@@ -5951,7 +5950,7 @@
         <v>7</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="G77" s="31" t="s">
         <v>364</v>
@@ -5986,7 +5985,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>364</v>
@@ -6019,7 +6018,7 @@
         <v>7</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G79" s="31"/>
       <c r="H79" s="20">
@@ -6145,7 +6144,7 @@
         <v>7</v>
       </c>
       <c r="F83" s="49" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G83" s="54" t="s">
         <v>500</v>
@@ -6414,7 +6413,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="34" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="15">
@@ -6447,7 +6446,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G93" s="31" t="s">
         <v>11</v>
@@ -6482,7 +6481,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G94" s="31" t="s">
         <v>11</v>
@@ -6517,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G95" s="31" t="s">
         <v>56</v>
@@ -6552,7 +6551,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G96" s="33" t="s">
         <v>102</v>
@@ -6587,7 +6586,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G97" s="33" t="s">
         <v>102</v>
@@ -6622,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G98" s="31" t="s">
         <v>124</v>
@@ -6657,7 +6656,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="G99" s="31" t="s">
         <v>151</v>
@@ -6692,7 +6691,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="G100" s="31" t="s">
         <v>300</v>
@@ -6727,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>343</v>
@@ -6762,7 +6761,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="G102" s="31" t="s">
         <v>364</v>
@@ -6795,7 +6794,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G103" s="31"/>
       <c r="H103" s="20">
@@ -7014,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="G110" s="31" t="s">
         <v>512</v>
@@ -7318,7 +7317,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="50" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="G120" s="55" t="s">
         <v>697</v>
@@ -7353,7 +7352,7 @@
         <v>7</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G121" s="31" t="s">
         <v>11</v>
@@ -7388,7 +7387,7 @@
         <v>7</v>
       </c>
       <c r="F122" s="31" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G122" s="31" t="s">
         <v>16</v>
@@ -7423,7 +7422,7 @@
         <v>7</v>
       </c>
       <c r="F123" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="G123" s="31" t="s">
         <v>80</v>
@@ -7458,7 +7457,7 @@
         <v>7</v>
       </c>
       <c r="F124" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="G124" s="31" t="s">
         <v>80</v>
@@ -7493,7 +7492,7 @@
         <v>7</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G125" s="56" t="s">
         <v>84</v>
@@ -7528,7 +7527,7 @@
         <v>7</v>
       </c>
       <c r="F126" s="31" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G126" s="56" t="s">
         <v>54</v>
@@ -7563,7 +7562,7 @@
         <v>7</v>
       </c>
       <c r="F127" s="31" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G127" s="56" t="s">
         <v>87</v>
@@ -7633,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="F129" s="33" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G129" s="33" t="s">
         <v>107</v>
@@ -7668,7 +7667,7 @@
         <v>7</v>
       </c>
       <c r="F130" s="33" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="G130" s="33" t="s">
         <v>110</v>
@@ -7703,7 +7702,7 @@
         <v>7</v>
       </c>
       <c r="F131" s="33" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="G131" s="33" t="s">
         <v>113</v>
@@ -7721,7 +7720,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>753</v>
+        <v>837</v>
       </c>
       <c r="G132" s="31" t="s">
         <v>127</v>
@@ -7773,7 +7772,7 @@
         <v>7</v>
       </c>
       <c r="F133" s="31" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G133" s="31" t="s">
         <v>148</v>
@@ -7806,7 +7805,7 @@
         <v>7</v>
       </c>
       <c r="F134" s="31" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="G134" s="31" t="s">
         <v>166</v>
@@ -7839,7 +7838,7 @@
         <v>7</v>
       </c>
       <c r="F135" s="31" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G135" s="31" t="s">
         <v>169</v>
@@ -7874,7 +7873,7 @@
         <v>7</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="G136" s="32" t="s">
         <v>351</v>
@@ -8002,7 +8001,7 @@
         <v>7</v>
       </c>
       <c r="F140" s="31" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G140" s="31" t="s">
         <v>515</v>
@@ -8037,7 +8036,7 @@
         <v>7</v>
       </c>
       <c r="F141" s="31" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G141" s="31" t="s">
         <v>536</v>
@@ -8072,7 +8071,7 @@
         <v>7</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="G142" s="31" t="s">
         <v>542</v>
@@ -8105,7 +8104,7 @@
         <v>7</v>
       </c>
       <c r="F143" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G143" s="31" t="s">
         <v>576</v>
@@ -8287,7 +8286,7 @@
         <v>7</v>
       </c>
       <c r="F149" s="34" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G149" s="31"/>
       <c r="H149" s="15">
@@ -8320,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="F150" s="34" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G150" s="31"/>
       <c r="H150" s="15">
@@ -8386,7 +8385,7 @@
         <v>8</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>754</v>
+        <v>822</v>
       </c>
       <c r="G152" s="32" t="s">
         <v>570</v>
@@ -8456,7 +8455,7 @@
         <v>8</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G154" s="32" t="s">
         <v>536</v>
@@ -8491,7 +8490,7 @@
         <v>8</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>277</v>
@@ -8557,7 +8556,7 @@
         <v>8</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G157" s="32" t="s">
         <v>41</v>
@@ -8592,7 +8591,7 @@
         <v>8</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G158" s="32" t="s">
         <v>44</v>
@@ -8627,7 +8626,7 @@
         <v>8</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G159" s="32" t="s">
         <v>47</v>
@@ -8691,7 +8690,7 @@
         <v>8</v>
       </c>
       <c r="F161" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G161" s="32"/>
       <c r="H161" s="21">
@@ -8757,7 +8756,7 @@
         <v>8</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="G163" s="32" t="s">
         <v>189</v>
@@ -8790,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="F164" s="32" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="G164" s="32" t="s">
         <v>24</v>
@@ -8823,7 +8822,7 @@
         <v>8</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G165" s="32"/>
       <c r="H165" s="21">
@@ -9011,7 +9010,7 @@
         <v>8</v>
       </c>
       <c r="F171" s="32" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G171" s="32" t="s">
         <v>102</v>
@@ -9046,7 +9045,7 @@
         <v>8</v>
       </c>
       <c r="F172" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G172" s="32" t="s">
         <v>280</v>
@@ -9081,7 +9080,7 @@
         <v>8</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G173" s="32" t="s">
         <v>280</v>
@@ -9116,7 +9115,7 @@
         <v>8</v>
       </c>
       <c r="F174" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G174" s="32" t="s">
         <v>280</v>
@@ -9151,7 +9150,7 @@
         <v>8</v>
       </c>
       <c r="F175" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G175" s="32" t="s">
         <v>280</v>
@@ -9186,7 +9185,7 @@
         <v>8</v>
       </c>
       <c r="F176" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G176" s="32" t="s">
         <v>280</v>
@@ -9221,7 +9220,7 @@
         <v>8</v>
       </c>
       <c r="F177" s="32" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="G177" s="32" t="s">
         <v>551</v>
@@ -9256,7 +9255,7 @@
         <v>8</v>
       </c>
       <c r="F178" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G178" s="32" t="s">
         <v>280</v>
@@ -9291,7 +9290,7 @@
         <v>8</v>
       </c>
       <c r="F179" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G179" s="32" t="s">
         <v>280</v>
@@ -9326,7 +9325,7 @@
         <v>8</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G180" s="32" t="s">
         <v>280</v>
@@ -9361,7 +9360,7 @@
         <v>8</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G181" s="32" t="s">
         <v>280</v>
@@ -9396,7 +9395,7 @@
         <v>8</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>11</v>
@@ -9431,7 +9430,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G183" s="32" t="s">
         <v>54</v>
@@ -9464,7 +9463,7 @@
         <v>8</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="G184" s="32"/>
       <c r="H184" s="21">
@@ -9526,7 +9525,7 @@
         <v>8</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G186" s="32" t="s">
         <v>533</v>
@@ -9621,7 +9620,7 @@
         <v>8</v>
       </c>
       <c r="F189" s="34" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="G189" s="31"/>
       <c r="H189" s="15">
@@ -9654,7 +9653,7 @@
         <v>8</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G190" s="32" t="s">
         <v>56</v>
@@ -9689,7 +9688,7 @@
         <v>8</v>
       </c>
       <c r="F191" s="32" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G191" s="32" t="s">
         <v>56</v>
@@ -9724,7 +9723,7 @@
         <v>8</v>
       </c>
       <c r="F192" s="32" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G192" s="32" t="s">
         <v>56</v>
@@ -9759,7 +9758,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="51" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="G193" s="51" t="s">
         <v>197</v>
@@ -9856,7 +9855,7 @@
         <v>8</v>
       </c>
       <c r="F196" s="32" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="G196" s="32" t="s">
         <v>291</v>
@@ -9891,7 +9890,7 @@
         <v>8</v>
       </c>
       <c r="F197" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G197" s="32" t="s">
         <v>280</v>
@@ -9926,7 +9925,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="32" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
       <c r="G198" s="32" t="s">
         <v>280</v>
@@ -9961,7 +9960,7 @@
         <v>8</v>
       </c>
       <c r="F199" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G199" s="32" t="s">
         <v>318</v>
@@ -9996,7 +9995,7 @@
         <v>8</v>
       </c>
       <c r="F200" s="32" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G200" s="32" t="s">
         <v>339</v>
@@ -10045,7 +10044,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="21">
         <v>201</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>8</v>
       </c>
       <c r="F202" s="32" t="s">
-        <v>757</v>
+        <v>838</v>
       </c>
       <c r="G202" s="32"/>
       <c r="H202" s="21">
@@ -10091,7 +10090,7 @@
         <v>8</v>
       </c>
       <c r="F203" s="32" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="G203" s="32"/>
       <c r="H203" s="21">
@@ -10122,7 +10121,7 @@
         <v>8</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="G204" s="32"/>
       <c r="H204" s="21">
@@ -10155,7 +10154,7 @@
         <v>8</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G205" s="32" t="s">
         <v>547</v>
@@ -10254,7 +10253,7 @@
         <v>8</v>
       </c>
       <c r="F208" s="32" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="G208" s="32" t="s">
         <v>144</v>
@@ -10287,7 +10286,7 @@
         <v>8</v>
       </c>
       <c r="F209" s="32" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="G209" s="32" t="s">
         <v>144</v>
@@ -10322,7 +10321,7 @@
         <v>8</v>
       </c>
       <c r="F210" s="32" t="s">
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="G210" s="32" t="s">
         <v>183</v>
@@ -10357,7 +10356,7 @@
         <v>8</v>
       </c>
       <c r="F211" s="32" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G211" s="32" t="s">
         <v>509</v>
@@ -10390,7 +10389,7 @@
         <v>8</v>
       </c>
       <c r="F212" s="32" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="G212" s="32" t="s">
         <v>573</v>
@@ -10487,7 +10486,7 @@
         <v>8</v>
       </c>
       <c r="F215" s="34" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="G215" s="31"/>
       <c r="H215" s="15">
@@ -10518,7 +10517,7 @@
         <v>8</v>
       </c>
       <c r="F216" s="32" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G216" s="32" t="s">
         <v>136</v>
@@ -10553,7 +10552,7 @@
         <v>8</v>
       </c>
       <c r="F217" s="32" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G217" s="32" t="s">
         <v>304</v>
@@ -10588,7 +10587,7 @@
         <v>8</v>
       </c>
       <c r="F218" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G218" s="32" t="s">
         <v>318</v>
@@ -10621,7 +10620,7 @@
         <v>8</v>
       </c>
       <c r="F219" s="32" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="G219" s="32"/>
       <c r="H219" s="21">
@@ -10902,7 +10901,7 @@
         <v>8</v>
       </c>
       <c r="F228" s="32" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G228" s="32" t="s">
         <v>11</v>
@@ -10935,7 +10934,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="32" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G229" s="32" t="s">
         <v>136</v>
@@ -10970,7 +10969,7 @@
         <v>8</v>
       </c>
       <c r="F230" s="32" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G230" s="32" t="s">
         <v>255</v>
@@ -11005,7 +11004,7 @@
         <v>8</v>
       </c>
       <c r="F231" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G231" s="32" t="s">
         <v>318</v>
@@ -11040,7 +11039,7 @@
         <v>8</v>
       </c>
       <c r="F232" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G232" s="32" t="s">
         <v>318</v>
@@ -11075,7 +11074,7 @@
         <v>8</v>
       </c>
       <c r="F233" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G233" s="32" t="s">
         <v>343</v>
@@ -11203,7 +11202,7 @@
         <v>8</v>
       </c>
       <c r="F237" s="32" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G237" s="32" t="s">
         <v>509</v>
@@ -11238,7 +11237,7 @@
         <v>8</v>
       </c>
       <c r="F238" s="32" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="G238" s="32" t="s">
         <v>515</v>
@@ -11273,7 +11272,7 @@
         <v>8</v>
       </c>
       <c r="F239" s="32" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G239" s="32" t="s">
         <v>506</v>
@@ -11339,7 +11338,7 @@
         <v>8</v>
       </c>
       <c r="F241" s="32" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G241" s="32" t="s">
         <v>16</v>
@@ -11374,7 +11373,7 @@
         <v>8</v>
       </c>
       <c r="F242" s="32" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G242" s="32" t="s">
         <v>22</v>
@@ -11409,7 +11408,7 @@
         <v>8</v>
       </c>
       <c r="F243" s="32" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G243" s="32" t="s">
         <v>178</v>
@@ -11444,7 +11443,7 @@
         <v>8</v>
       </c>
       <c r="F244" s="32" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G244" s="32" t="s">
         <v>304</v>
@@ -11479,7 +11478,7 @@
         <v>8</v>
       </c>
       <c r="F245" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G245" s="32" t="s">
         <v>343</v>
@@ -11574,7 +11573,7 @@
         <v>8</v>
       </c>
       <c r="F248" s="32" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="G248" s="32" t="s">
         <v>136</v>
@@ -11607,7 +11606,7 @@
         <v>8</v>
       </c>
       <c r="F249" s="32" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="G249" s="32" t="s">
         <v>144</v>
@@ -11642,7 +11641,7 @@
         <v>8</v>
       </c>
       <c r="F250" s="32" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G250" s="32" t="s">
         <v>148</v>
@@ -11675,7 +11674,7 @@
         <v>8</v>
       </c>
       <c r="F251" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G251" s="32" t="s">
         <v>169</v>
@@ -11708,7 +11707,7 @@
         <v>8</v>
       </c>
       <c r="F252" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G252" s="32" t="s">
         <v>169</v>
@@ -11743,7 +11742,7 @@
         <v>8</v>
       </c>
       <c r="F253" s="32" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G253" s="32" t="s">
         <v>178</v>
@@ -11776,7 +11775,7 @@
         <v>8</v>
       </c>
       <c r="F254" s="32" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G254" s="32" t="s">
         <v>189</v>
@@ -11809,7 +11808,7 @@
         <v>8</v>
       </c>
       <c r="F255" s="32" t="s">
-        <v>761</v>
+        <v>828</v>
       </c>
       <c r="G255" s="32" t="s">
         <v>227</v>
@@ -11844,7 +11843,7 @@
         <v>8</v>
       </c>
       <c r="F256" s="32" t="s">
-        <v>752</v>
+        <v>824</v>
       </c>
       <c r="G256" s="32" t="s">
         <v>221</v>
@@ -11879,7 +11878,7 @@
         <v>8</v>
       </c>
       <c r="F257" s="32" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G257" s="32" t="s">
         <v>258</v>
@@ -11914,7 +11913,7 @@
         <v>8</v>
       </c>
       <c r="F258" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G258" s="32" t="s">
         <v>318</v>
@@ -11949,7 +11948,7 @@
         <v>8</v>
       </c>
       <c r="F259" s="32" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G259" s="32" t="s">
         <v>318</v>
@@ -11984,7 +11983,7 @@
         <v>8</v>
       </c>
       <c r="F260" s="32" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="G260" s="32" t="s">
         <v>331</v>
@@ -12017,7 +12016,7 @@
         <v>8</v>
       </c>
       <c r="F261" s="32" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="G261" s="32"/>
       <c r="H261" s="21">
@@ -12048,7 +12047,7 @@
         <v>8</v>
       </c>
       <c r="F262" s="32" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="G262" s="32"/>
       <c r="H262" s="21">
@@ -12079,7 +12078,7 @@
         <v>8</v>
       </c>
       <c r="F263" s="32" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G263" s="32"/>
       <c r="H263" s="21">
@@ -12267,7 +12266,7 @@
         <v>8</v>
       </c>
       <c r="F269" s="32" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G269" s="32" t="s">
         <v>509</v>
@@ -12302,7 +12301,7 @@
         <v>8</v>
       </c>
       <c r="F270" s="32" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="G270" s="32" t="s">
         <v>542</v>
@@ -12337,7 +12336,7 @@
         <v>8</v>
       </c>
       <c r="F271" s="32" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="G271" s="32" t="s">
         <v>551</v>
@@ -12372,7 +12371,7 @@
         <v>8</v>
       </c>
       <c r="F272" s="32" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="G272" s="32" t="s">
         <v>559</v>
@@ -12498,7 +12497,7 @@
         <v>8</v>
       </c>
       <c r="F276" s="34" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G276" s="31"/>
       <c r="H276" s="15">
@@ -12531,7 +12530,7 @@
         <v>8</v>
       </c>
       <c r="F277" s="34" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="G277" s="31"/>
       <c r="H277" s="15">
@@ -12564,7 +12563,7 @@
         <v>8</v>
       </c>
       <c r="F278" s="32" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G278" s="32" t="s">
         <v>56</v>
@@ -12599,7 +12598,7 @@
         <v>8</v>
       </c>
       <c r="F279" s="32" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G279" s="32" t="s">
         <v>41</v>
@@ -12634,7 +12633,7 @@
         <v>8</v>
       </c>
       <c r="F280" s="32" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="G280" s="32" t="s">
         <v>41</v>
@@ -12667,7 +12666,7 @@
         <v>8</v>
       </c>
       <c r="F281" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G281" s="32"/>
       <c r="H281" s="21">
@@ -12700,7 +12699,7 @@
         <v>8</v>
       </c>
       <c r="F282" s="32" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="G282" s="32" t="s">
         <v>102</v>
@@ -12768,7 +12767,7 @@
         <v>8</v>
       </c>
       <c r="F284" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G284" s="32" t="s">
         <v>169</v>
@@ -12801,7 +12800,7 @@
         <v>8</v>
       </c>
       <c r="F285" s="32" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G285" s="32" t="s">
         <v>189</v>
@@ -12834,7 +12833,7 @@
         <v>8</v>
       </c>
       <c r="F286" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G286" s="51" t="s">
         <v>200</v>
@@ -12869,7 +12868,7 @@
         <v>8</v>
       </c>
       <c r="F287" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G287" s="51" t="s">
         <v>200</v>
@@ -12904,7 +12903,7 @@
         <v>8</v>
       </c>
       <c r="F288" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G288" s="51" t="s">
         <v>200</v>
@@ -12939,7 +12938,7 @@
         <v>8</v>
       </c>
       <c r="F289" s="32" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="G289" s="32" t="s">
         <v>261</v>
@@ -12974,7 +12973,7 @@
         <v>8</v>
       </c>
       <c r="F290" s="32" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G290" s="32" t="s">
         <v>258</v>
@@ -13009,7 +13008,7 @@
         <v>8</v>
       </c>
       <c r="F291" s="32" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="G291" s="32" t="s">
         <v>308</v>
@@ -13044,7 +13043,7 @@
         <v>8</v>
       </c>
       <c r="F292" s="32" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="G292" s="32" t="s">
         <v>369</v>
@@ -13077,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="F293" s="32" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="G293" s="32"/>
       <c r="H293" s="21">
@@ -13108,7 +13107,7 @@
         <v>8</v>
       </c>
       <c r="F294" s="32" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="G294" s="32"/>
       <c r="H294" s="21">
@@ -13385,7 +13384,7 @@
         <v>8</v>
       </c>
       <c r="F303" s="52" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="G303" s="32" t="s">
         <v>701</v>
@@ -13490,7 +13489,7 @@
         <v>8</v>
       </c>
       <c r="F306" s="32" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G306" s="32" t="s">
         <v>44</v>
@@ -13523,7 +13522,7 @@
         <v>8</v>
       </c>
       <c r="F307" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G307" s="32"/>
       <c r="H307" s="21">
@@ -13556,7 +13555,7 @@
         <v>8</v>
       </c>
       <c r="F308" s="32" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="G308" s="32" t="s">
         <v>121</v>
@@ -13589,7 +13588,7 @@
         <v>8</v>
       </c>
       <c r="F309" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G309" s="32" t="s">
         <v>169</v>
@@ -13624,7 +13623,7 @@
         <v>8</v>
       </c>
       <c r="F310" s="32" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G310" s="32" t="s">
         <v>178</v>
@@ -13725,7 +13724,7 @@
         <v>8</v>
       </c>
       <c r="F313" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G313" s="51" t="s">
         <v>200</v>
@@ -13760,7 +13759,7 @@
         <v>8</v>
       </c>
       <c r="F314" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G314" s="51" t="s">
         <v>200</v>
@@ -13795,7 +13794,7 @@
         <v>8</v>
       </c>
       <c r="F315" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G315" s="51" t="s">
         <v>200</v>
@@ -13830,7 +13829,7 @@
         <v>8</v>
       </c>
       <c r="F316" s="32" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="G316" s="51" t="s">
         <v>213</v>
@@ -13865,7 +13864,7 @@
         <v>8</v>
       </c>
       <c r="F317" s="32" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="G317" s="51" t="s">
         <v>213</v>
@@ -13900,7 +13899,7 @@
         <v>8</v>
       </c>
       <c r="F318" s="32" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="G318" s="51" t="s">
         <v>213</v>
@@ -13935,7 +13934,7 @@
         <v>8</v>
       </c>
       <c r="F319" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G319" s="32" t="s">
         <v>247</v>
@@ -13970,7 +13969,7 @@
         <v>8</v>
       </c>
       <c r="F320" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G320" s="32" t="s">
         <v>247</v>
@@ -14005,7 +14004,7 @@
         <v>8</v>
       </c>
       <c r="F321" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G321" s="32" t="s">
         <v>247</v>
@@ -14040,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="F322" s="32" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="G322" s="32" t="s">
         <v>265</v>
@@ -14075,7 +14074,7 @@
         <v>8</v>
       </c>
       <c r="F323" s="32" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G323" s="32" t="s">
         <v>258</v>
@@ -14110,7 +14109,7 @@
         <v>8</v>
       </c>
       <c r="F324" s="32" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="G324" s="32" t="s">
         <v>296</v>
@@ -14145,7 +14144,7 @@
         <v>8</v>
       </c>
       <c r="F325" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G325" s="32" t="s">
         <v>343</v>
@@ -14178,7 +14177,7 @@
         <v>8</v>
       </c>
       <c r="F326" s="32" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="G326" s="32"/>
       <c r="H326" s="21">
@@ -14335,7 +14334,7 @@
         <v>8</v>
       </c>
       <c r="F331" s="32" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G331" s="32" t="s">
         <v>506</v>
@@ -14581,7 +14580,7 @@
         <v>8</v>
       </c>
       <c r="F339" s="53" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="G339" s="52" t="s">
         <v>697</v>
@@ -14616,7 +14615,7 @@
         <v>8</v>
       </c>
       <c r="F340" s="32" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="G340" s="32" t="s">
         <v>30</v>
@@ -14651,7 +14650,7 @@
         <v>8</v>
       </c>
       <c r="F341" s="32" t="s">
-        <v>774</v>
+        <v>823</v>
       </c>
       <c r="G341" s="32" t="s">
         <v>24</v>
@@ -14686,7 +14685,7 @@
         <v>8</v>
       </c>
       <c r="F342" s="32" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="G342" s="32" t="s">
         <v>56</v>
@@ -14756,7 +14755,7 @@
         <v>8</v>
       </c>
       <c r="F344" s="32" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G344" s="32" t="s">
         <v>44</v>
@@ -14791,7 +14790,7 @@
         <v>8</v>
       </c>
       <c r="F345" s="32" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G345" s="32" t="s">
         <v>73</v>
@@ -14824,7 +14823,7 @@
         <v>8</v>
       </c>
       <c r="F346" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G346" s="32"/>
       <c r="H346" s="21">
@@ -14855,7 +14854,7 @@
         <v>8</v>
       </c>
       <c r="F347" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G347" s="32"/>
       <c r="H347" s="21">
@@ -14886,7 +14885,7 @@
         <v>8</v>
       </c>
       <c r="F348" s="32" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G348" s="32"/>
       <c r="H348" s="21">
@@ -14919,7 +14918,7 @@
         <v>8</v>
       </c>
       <c r="F349" s="32" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="G349" s="32" t="s">
         <v>130</v>
@@ -14954,7 +14953,7 @@
         <v>8</v>
       </c>
       <c r="F350" s="32" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="G350" s="32" t="s">
         <v>133</v>
@@ -14987,7 +14986,7 @@
         <v>8</v>
       </c>
       <c r="F351" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G351" s="32" t="s">
         <v>169</v>
@@ -15020,7 +15019,7 @@
         <v>8</v>
       </c>
       <c r="F352" s="32" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="G352" s="32" t="s">
         <v>169</v>
@@ -15055,7 +15054,7 @@
         <v>8</v>
       </c>
       <c r="F353" s="32" t="s">
-        <v>764</v>
+        <v>841</v>
       </c>
       <c r="G353" s="32" t="s">
         <v>186</v>
@@ -15090,7 +15089,7 @@
         <v>8</v>
       </c>
       <c r="F354" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G354" s="51" t="s">
         <v>200</v>
@@ -15125,7 +15124,7 @@
         <v>8</v>
       </c>
       <c r="F355" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G355" s="51" t="s">
         <v>200</v>
@@ -15160,7 +15159,7 @@
         <v>8</v>
       </c>
       <c r="F356" s="51" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="G356" s="51" t="s">
         <v>200</v>
@@ -15288,7 +15287,7 @@
         <v>8</v>
       </c>
       <c r="F360" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G360" s="32" t="s">
         <v>247</v>
@@ -15323,7 +15322,7 @@
         <v>8</v>
       </c>
       <c r="F361" s="32" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G361" s="32" t="s">
         <v>269</v>
@@ -15358,7 +15357,7 @@
         <v>8</v>
       </c>
       <c r="F362" s="32" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="G362" s="32" t="s">
         <v>308</v>
@@ -15393,7 +15392,7 @@
         <v>8</v>
       </c>
       <c r="F363" s="32" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="G363" s="32" t="s">
         <v>312</v>
@@ -15428,7 +15427,7 @@
         <v>8</v>
       </c>
       <c r="F364" s="32" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="G364" s="32" t="s">
         <v>331</v>
@@ -15463,7 +15462,7 @@
         <v>8</v>
       </c>
       <c r="F365" s="32" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="G365" s="32" t="s">
         <v>335</v>
@@ -15498,7 +15497,7 @@
         <v>8</v>
       </c>
       <c r="F366" s="32" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G366" s="32" t="s">
         <v>339</v>
@@ -15533,7 +15532,7 @@
         <v>8</v>
       </c>
       <c r="F367" s="32" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="G367" s="32" t="s">
         <v>357</v>
@@ -15568,7 +15567,7 @@
         <v>8</v>
       </c>
       <c r="F368" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G368" s="32" t="s">
         <v>343</v>
@@ -15603,7 +15602,7 @@
         <v>8</v>
       </c>
       <c r="F369" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G369" s="32" t="s">
         <v>343</v>
@@ -15638,7 +15637,7 @@
         <v>8</v>
       </c>
       <c r="F370" s="32" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G370" s="32" t="s">
         <v>343</v>
@@ -15702,7 +15701,7 @@
         <v>8</v>
       </c>
       <c r="F372" s="32" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="G372" s="32"/>
       <c r="H372" s="21">
@@ -15733,7 +15732,7 @@
         <v>8</v>
       </c>
       <c r="F373" s="32" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="G373" s="32"/>
       <c r="H373" s="21">
@@ -15766,7 +15765,7 @@
         <v>8</v>
       </c>
       <c r="F374" s="32" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="G374" s="32" t="s">
         <v>418</v>
@@ -16022,7 +16021,7 @@
         <v>8</v>
       </c>
       <c r="F382" s="32" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="G382" s="32" t="s">
         <v>539</v>
@@ -16057,7 +16056,7 @@
         <v>8</v>
       </c>
       <c r="F383" s="32" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="G383" s="32" t="s">
         <v>542</v>
@@ -16092,7 +16091,7 @@
         <v>8</v>
       </c>
       <c r="F384" s="32" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="G384" s="32" t="s">
         <v>542</v>
@@ -16127,7 +16126,7 @@
         <v>8</v>
       </c>
       <c r="F385" s="32" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G385" s="32" t="s">
         <v>547</v>
@@ -16162,7 +16161,7 @@
         <v>8</v>
       </c>
       <c r="F386" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G386" s="32" t="s">
         <v>555</v>
@@ -16197,7 +16196,7 @@
         <v>8</v>
       </c>
       <c r="F387" s="32" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G387" s="32" t="s">
         <v>555</v>
@@ -16232,7 +16231,7 @@
         <v>8</v>
       </c>
       <c r="F388" s="32" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="G388" s="32" t="s">
         <v>559</v>
@@ -16573,7 +16572,7 @@
         <v>8</v>
       </c>
       <c r="F399" s="34" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G399" s="31"/>
       <c r="H399" s="15">
@@ -16606,7 +16605,7 @@
         <v>8</v>
       </c>
       <c r="F400" s="34" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="G400" s="31"/>
       <c r="H400" s="15">
@@ -16651,7 +16650,7 @@
     <protectedRange password="C495" sqref="C278" name="Диапазон1_2_1" securityDescriptor="O:WDG:WDD:(D;;CC;;;WD)"/>
   </protectedRanges>
   <autoFilter ref="A1:K400" xr:uid="{612D8132-6242-4CCF-BA6D-553B63A99DD8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J150">
+  <sortState ref="B2:J150">
     <sortCondition descending="1" ref="H2:H150"/>
   </sortState>
   <conditionalFormatting sqref="G44">
